--- a/ResourcesFolder/TestData.xlsx
+++ b/ResourcesFolder/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Comment</t>
   </si>
@@ -66,22 +66,103 @@
     <t>No luck by chance here. Play and win great products for yourself</t>
   </si>
   <si>
-    <t>verifytext</t>
-  </si>
-  <si>
     <t>We have changed the way competitions run</t>
   </si>
   <si>
     <t>WaitForElementVisible</t>
   </si>
   <si>
-    <t>WaitForTexttVisible</t>
-  </si>
-  <si>
     <t>Browse the large catalogue</t>
   </si>
   <si>
     <t>Look out for the competition winners in the leader board</t>
+  </si>
+  <si>
+    <t>TC_EC_0003</t>
+  </si>
+  <si>
+    <t>JishiText</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>text verify data</t>
+  </si>
+  <si>
+    <t>test verify data</t>
+  </si>
+  <si>
+    <t>attributed</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>active_banner</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Best of Botswana</t>
+  </si>
+  <si>
+    <t>Sony PlayStation 4 Pro</t>
+  </si>
+  <si>
+    <t>Jishi_explore_MySelf</t>
+  </si>
+  <si>
+    <t>Apple iPhone 11 Pro Max (256GB) - Space Grey</t>
+  </si>
+  <si>
+    <t>Macbook Pro</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 5</t>
+  </si>
+  <si>
+    <t>Essential Japan</t>
+  </si>
+  <si>
+    <t>Amazon Gift Card</t>
+  </si>
+  <si>
+    <t>Galaxy Fold 5G</t>
+  </si>
+  <si>
+    <t>Dyson Cyclone V10 Cordless Vacuum Cleaner</t>
+  </si>
+  <si>
+    <t>Visit Vatican Museum, Sistine Chapel and St. Peter's Basilica</t>
+  </si>
+  <si>
+    <t>Four Countries Safari</t>
+  </si>
+  <si>
+    <t>A Taste of Jordan</t>
+  </si>
+  <si>
+    <t>Fitbit Versa 2 Smart Watch</t>
+  </si>
+  <si>
+    <t>Acer Nitro 5 AN515-52 Gaming Notebook</t>
+  </si>
+  <si>
+    <t>Ethiopian Odyssey</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S10 Smartphone</t>
+  </si>
+  <si>
+    <t>Falkland Islands Holidays</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>Every week, highest scorer wins additional £50 gift voucher</t>
   </si>
 </sst>
 </file>
@@ -123,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -141,6 +222,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,22 +523,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -461,12 +560,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,7 +573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -482,7 +581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -490,48 +589,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:8">
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -539,109 +637,216 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="45">
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5" t="s">
+    <row r="13" spans="1:8">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" ht="45">
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" ht="30">
-      <c r="B15" s="5" t="s">
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="H14" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="9" customFormat="1">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="9"/>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="9"/>
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="30">
-      <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45">
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45">
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="9"/>
       <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="9"/>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="1:22" ht="60">
+      <c r="A23" s="9"/>
+      <c r="B23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23" s="6"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="9"/>
+      <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
     </row>

--- a/ResourcesFolder/TestData.xlsx
+++ b/ResourcesFolder/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Comment</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Every week, highest scorer wins additional £50 gift voucher</t>
+  </si>
+  <si>
+    <t>List_banner</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,7 +539,7 @@
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="24.140625" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
@@ -544,6 +547,7 @@
     <col min="13" max="13" width="16.28515625" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" customWidth="1"/>
     <col min="19" max="19" width="15.140625" customWidth="1"/>
     <col min="20" max="20" width="15.85546875" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
@@ -775,73 +779,95 @@
       <c r="B23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="K23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="M23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="N23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="O23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="P23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="Q23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="R23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="S23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="T23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="T23" s="6" t="s">
+      <c r="U23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="U23" s="6" t="s">
+      <c r="V23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="V23" s="6"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="9"/>
       <c r="B24" t="s">
         <v>8</v>
       </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="9" t="s">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
